--- a/docs/entrega_1/2.3 caracteristicas de usuarios.xlsx
+++ b/docs/entrega_1/2.3 caracteristicas de usuarios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documentos\UNI\INGENIERIA DE SOFTWARE\PROYECTO_BSA\PRACTICA 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel\Documents\Miguel\Universidad\2\Ingenieria del software\Trabajo\IngSw\docs\entrega_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8852F231-D75F-420F-AFD7-8A54E00B84FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647A430F-10BD-4349-B29A-414A2DBDC649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{581E2667-151F-4E20-A31F-DDC44133FA3F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Tipo de Usuario</t>
   </si>
@@ -47,12 +47,6 @@
     <t>Habilidades</t>
   </si>
   <si>
-    <t>Comprador</t>
-  </si>
-  <si>
-    <t>Vendedor</t>
-  </si>
-  <si>
     <t>Empleados</t>
   </si>
   <si>
@@ -68,9 +62,6 @@
     <t>Variable (usuario general sin formación específica)</t>
   </si>
   <si>
-    <t>Variable (usuario individual o concesionario)</t>
-  </si>
-  <si>
     <t>Formación técnica o profesional según rol</t>
   </si>
   <si>
@@ -80,9 +71,6 @@
     <t>Experto en administración de sistemas y seguridad</t>
   </si>
   <si>
-    <t>Uso básico de la plataforma, búsqueda y compra de productos</t>
-  </si>
-  <si>
     <t>Operación y mantenimiento de la plataforma o servicios</t>
   </si>
   <si>
@@ -98,26 +86,55 @@
     <t xml:space="preserve"> &lt;Gestión de usuarios y permisos               &lt;Monitoreo de la actividad del sistema                                            &lt; Implementación de mejoras y seguridad</t>
   </si>
   <si>
-    <t xml:space="preserve">Publicación de productos </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;Buscar automóviles y accesorios                                       &lt;Realizar compras y gestionar pagos               &lt;Valorar productos y vendedores</t>
-  </si>
-  <si>
-    <t>&lt;Publicar y administrar productos en venta               &lt;Visualizar sus reseñas</t>
-  </si>
-  <si>
-    <t>&lt;Soporte técnico y ayuda a usuarios             &lt;Gestión de incidencias y reportes                                            &lt; Mantenimiento de la plataforma     &lt;Realizacion de los servicios ofertados</t>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Uso básico de la plataforma, búsqueda, publicación y compra de productos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;Buscar automóviles y accesorios                                       &lt;Realizar compras y gestionar pagos               &lt;Valorar productos y vendedores            &lt;Publicar y administrar productos en venta               &lt;Visualizar sus reseñas</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;Soporte técnico y ayuda a usuarios             &lt;Gestión de incidencias y reportes                                            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt; Mantenimiento de la plataforma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     &lt;Realizacion de los servicios ofertados</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -143,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -166,11 +183,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -186,6 +229,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -205,7 +260,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -523,11 +578,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B108553-B010-418F-B8E4-32D70C6E91BE}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
     <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -552,77 +607,69 @@
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="D5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>22</v>
-      </c>
+    <row r="6" spans="2:5" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="E8" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="E9" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -635,6 +682,12 @@
     <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>